--- a/data/trans_dic/P22$mutaSS-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P22$mutaSS-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,28</t>
+          <t>1,79; 4,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,98</t>
+          <t>1,49; 4,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,83</t>
+          <t>1,34; 3,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,93</t>
+          <t>0,88; 2,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,26</t>
+          <t>2,49; 5,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,91</t>
+          <t>0,41; 1,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,07</t>
+          <t>0,36; 1,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 1,95</t>
+          <t>0,83; 1,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,46; 4,42</t>
+          <t>2,42; 4,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 2,6</t>
+          <t>1,13; 2,58</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,5</t>
+          <t>0,95; 2,49</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,12</t>
+          <t>1,01; 2,21</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,34</t>
+          <t>1,93; 4,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,26</t>
+          <t>1,26; 3,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,2</t>
+          <t>1,95; 4,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,26</t>
+          <t>1,01; 3,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,26</t>
+          <t>1,98; 4,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,8</t>
+          <t>1,14; 2,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,67</t>
+          <t>0,41; 1,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,78; 3,38</t>
+          <t>1,84; 3,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,93</t>
+          <t>2,25; 3,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 2,71</t>
+          <t>1,33; 2,77</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,65</t>
+          <t>1,34; 2,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 2,95</t>
+          <t>1,45; 2,97</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,35</t>
+          <t>1,58; 4,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,95</t>
+          <t>1,19; 3,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,88</t>
+          <t>0,4; 1,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 6,85</t>
+          <t>2,79; 7,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,72</t>
+          <t>1,95; 4,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,96</t>
+          <t>1,3; 3,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,51</t>
+          <t>0,76; 2,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 1,95</t>
+          <t>0,54; 1,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 3,9</t>
+          <t>2,09; 3,82</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,31</t>
+          <t>1,6; 3,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 1,9</t>
+          <t>0,76; 1,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,76</t>
+          <t>1,55; 3,83</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,1; 6,91</t>
+          <t>4,03; 6,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,03</t>
+          <t>2,53; 5,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 3,88</t>
+          <t>1,75; 4,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 3,78</t>
+          <t>1,92; 4,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,07</t>
+          <t>2,66; 4,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,22</t>
+          <t>1,92; 4,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,94</t>
+          <t>1,09; 2,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,59</t>
+          <t>1,06; 2,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,66; 5,43</t>
+          <t>3,64; 5,61</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,07</t>
+          <t>2,52; 4,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 2,97</t>
+          <t>1,63; 2,99</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 2,81</t>
+          <t>1,61; 2,85</t>
         </is>
       </c>
     </row>
@@ -1284,37 +1285,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,95; 4,27</t>
+          <t>2,97; 4,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,07; 3,3</t>
+          <t>2,14; 3,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,82; 2,88</t>
+          <t>1,79; 2,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,94; 3,38</t>
+          <t>2,03; 3,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,74; 3,99</t>
+          <t>2,79; 4,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,57</t>
+          <t>1,58; 2,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,93; 1,72</t>
+          <t>0,95; 1,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,22 +1325,22 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,98; 3,93</t>
+          <t>3,01; 3,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,02; 2,75</t>
+          <t>2,0; 2,79</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,11</t>
+          <t>1,49; 2,14</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,55</t>
+          <t>1,78; 2,54</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menor, es beneficiaria de Mutualidad de Estado (Seguridad Social)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>20200</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17387</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>15524</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10555</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>25327</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6836</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6342</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8858</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>45527</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>24222</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>21866</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>19413</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>12397; 31332</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10466; 28629</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9004; 25788</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5619; 17975</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>17143; 36543</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2885; 13738</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2411; 13159</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5588; 13336</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>33319; 60045</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>15760; 36069</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>12756; 33469</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>13269; 28953</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>28777</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>21076</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>29430</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>24518</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>29047</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>19278</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9148</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>24410</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>57824</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>40354</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>38577</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>48928</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>18563; 40885</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12822; 32383</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>19883; 41884</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>12084; 39510</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>19216; 40294</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>11731; 30285</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4270; 16616</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>17638; 33014</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>43339; 74280</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>27263; 56673</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>27601; 52135</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>31144; 63868</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>18528</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17084</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7149</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>31358</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>20865</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>18059</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11564</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11155</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>39393</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>35143</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>18714</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>42513</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10729; 28921</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9017; 26881</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3035; 14134</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>19646; 50409</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>13324; 31001</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10066; 29914</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5912; 19849</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5007; 18391</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>28442; 51983</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>24556; 50882</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>11637; 29569</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>25422; 62796</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>49588</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>34379</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>25138</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>24718</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>38232</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>30005</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>18890</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>18316</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>87820</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>64384</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>44028</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>43034</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>37835; 63891</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>23972; 49746</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>16380; 37538</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>17760; 37333</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>27570; 51426</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>20164; 43942</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>11429; 30369</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>11557; 29019</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>71886; 110849</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>50348; 82476</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>32366; 59161</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>32433; 57558</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>117093</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>89925</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>77242</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>91149</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>113471</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>74178</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>45944</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>62739</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>230564</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>164103</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>123186</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>153888</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>97240; 140671</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>73191; 112473</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>60680; 96571</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>70274; 116316</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>94062; 136296</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>56292; 93592</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>33448; 61918</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>48184; 77324</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>200172; 265303</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>139526; 194698</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>103529; 148426</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>126393; 180810</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>